--- a/Test-case Check-list Bug Friends_house.xlsx
+++ b/Test-case Check-list Bug Friends_house.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\OneDrive\Documenti\QA Testing\In english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243B0A8-7837-4D37-A368-49C760CBBFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8090487-7027-49D3-8476-EF5067C0B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B628AA17-D28A-45B2-B13B-3D903F6BABAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugs" sheetId="3" r:id="rId2"/>
-    <sheet name="Test cases" sheetId="2" r:id="rId3"/>
+    <sheet name="Test cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="202">
   <si>
     <t>Результат</t>
   </si>
@@ -74,117 +74,33 @@
     <t>DP-001</t>
   </si>
   <si>
-    <t>Открыта страница "Питомцы" http://158.160.56.133/app/pets</t>
-  </si>
-  <si>
     <t>DP-002</t>
   </si>
   <si>
-    <t>1) Ввести положительное числовое значение, начиная с 0. Допустимы дробные с точкой.</t>
-  </si>
-  <si>
-    <t>Выводятся карточки питомцев с соответствующим возрастом (при указании дробных чисел значение округляется в меньшую сторону)</t>
-  </si>
-  <si>
-    <t>В поле выводятся целые числа, начиная с 0, с шагом +/-1. Выводятся карточки питомцев с соответствующим возрастом.</t>
-  </si>
-  <si>
     <t>DP-003</t>
   </si>
   <si>
-    <t>1) Ввести отрицательное числовое значение</t>
-  </si>
-  <si>
-    <t>Выводится надпись: "Приют пуст"</t>
-  </si>
-  <si>
     <t>DP-004</t>
   </si>
   <si>
-    <t>1) Ввести положительное числовое значение, начиная с 0, в поле "Возраст"
-2) Кликнуть кнопку "Сбросить"</t>
-  </si>
-  <si>
-    <t>1) Выводятся карточки питомцев с соответствующим возрастом
-2) Выводятся карточки всех питомцев</t>
-  </si>
-  <si>
     <t>DP-005</t>
   </si>
   <si>
-    <t>Открыта карточка одного из питомцев со страницы "Питомцы" http://158.160.56.133/app/pets</t>
-  </si>
-  <si>
-    <t>1) Кликнуть кнопку "Приютить"
-2) Заполнить все поля
-3) Кликнуть кнопку "ДА!"</t>
-  </si>
-  <si>
-    <t>1) Открывается окно с полями для ввода данных
-2)  
-3) Окно закрывается и появлется popup с сообщением: Ваша заявка отправлена.</t>
-  </si>
-  <si>
-    <t>1) Открывается выпадающий список с видами животных
-2)  
-3) Открывается выпадающий список с породами кошек</t>
-  </si>
-  <si>
-    <t>1) Кликнуть на фильтр "Вид животного" 
-2) В выпадающем списке выбрать "кошка"
-3) Кликнуть на фильтр Порода</t>
-  </si>
-  <si>
     <t>DP-006</t>
   </si>
   <si>
-    <t>Открыто окно "Приютить питомца?!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Ввести числа в поля "Введите имя" и "Введите фамилию"
-2) Кликнуть на кнопку "Да!"
-</t>
-  </si>
-  <si>
-    <t>Под полями появляется сообщение о некорректном значении</t>
-  </si>
-  <si>
     <t>DP-007</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Оставить незаполненным поле  "Введите отчество"
-2) Кликнуть на кнопку "Да!"
-</t>
-  </si>
-  <si>
-    <t>В конце поля появляется галка, подтверждающая корректность заполнения</t>
-  </si>
-  <si>
     <t>DP-008</t>
   </si>
   <si>
     <t>DP-009</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Оставить незаполненным поле  "Оставьте комментарий"
-2) Кликнуть на кнопку "Да!"
-</t>
-  </si>
-  <si>
     <t>DP-010</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Ввести буквы в поле  "+7 ваш номер"
-2) Кликнуть на кнопку "Да!"
-</t>
-  </si>
-  <si>
-    <t>Под полем выводится сообщение: Номер должен соответствовать +79********* !</t>
-  </si>
-  <si>
-    <t>1) Поменять возраст с помощью кнопок со стрелками вверх-вниз, расположенных в поле</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -225,36 +141,6 @@
   </si>
   <si>
     <t>DP_b-011</t>
-  </si>
-  <si>
-    <t>Ввод значений в поле фильтра "Возраст" с помощью клавиатуры в поле на странице "Питомцы"</t>
-  </si>
-  <si>
-    <t>Ввод значений в поле фильтра "Возраст" с помощью кнопок со стрелками в поле на странице "Питомцы"</t>
-  </si>
-  <si>
-    <t>Ввод отрицательных значений в поле фильтра "Возраст" на странице "Питомцы"</t>
-  </si>
-  <si>
-    <t>Проверка результатов обновления информации после нажатия кнопки "Сбросить" на странице "Питомцы"</t>
-  </si>
-  <si>
-    <t>Вывод списка в поле фильтра "Порода" после выбора значение в фильтре "Вид животного" на странице "Питомцы"</t>
-  </si>
-  <si>
-    <t>Появление сообщение об отправке данных в окне "Приютить питомца?!" после нажатия кнопки "Да!"</t>
-  </si>
-  <si>
-    <t>Ввод чисел в поля для ввода имени и фамилии в окне "Приютить питомца?!"</t>
-  </si>
-  <si>
-    <t>Проверка допустимости пустого значения в поле для ввода отчества в окне "Приютить питомца?!"</t>
-  </si>
-  <si>
-    <t>Проверка допустимости незаполненного поля для комментариев в окне "Приютить питомца?!"</t>
-  </si>
-  <si>
-    <t>Ввод букв в поле для ввода номера телефона в окне "Приютить питомца?!"</t>
   </si>
   <si>
     <t>Medium</t>
@@ -693,6 +579,124 @@
   <si>
     <t>Actual result: At the end of the field, a check mark appears to confirm the correctness of filling.
 Expected result: A message about incorrect data entry appears</t>
+  </si>
+  <si>
+    <t>The page "Pets" ("Питомцы") is open http://158.160.56.133/app/pets</t>
+  </si>
+  <si>
+    <t>A pet's card is open from the page "Pets" ("Питомцы") http://158.160.56.133/app/pets</t>
+  </si>
+  <si>
+    <t>The modal window "Adopt a pet?!" ("Приютить питомца?!") is open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entering values in the "Age" ("Возраст") filter field using the keyboard in the field on the page "Pets" ("Питомцы") </t>
+  </si>
+  <si>
+    <t>1. The page "Pets" ("Питомцы") is open http://158.160.56.133/app/pets
+2. Dotted decimals are allowed.</t>
+  </si>
+  <si>
+    <t>Pet cards with the corresponding age are displayed (fractional values with decimal points are rounded down)</t>
+  </si>
+  <si>
+    <t>Entering values in the "Age" ("Возраст") filter field using the arrow buttons in the field on the page "Pets" ("Питомцы")</t>
+  </si>
+  <si>
+    <t>1) Change age using the up and down arrow buttons located in the filter field</t>
+  </si>
+  <si>
+    <t>Integer numbers are displayed in the field, starting from 0, with a step +/-1. Pet cards with the corresponding age are displayed.</t>
+  </si>
+  <si>
+    <t>1) Enter a negative numeric value</t>
+  </si>
+  <si>
+    <t>Displayed the inscription: "The shelter is empty"</t>
+  </si>
+  <si>
+    <t>Entering negative values in the "Age" ("Возраст") filter field on the page "Pets" ("Питомцы")</t>
+  </si>
+  <si>
+    <t>Checking the results of updating information after clicking the button "Reset" ("Сбросить") on the page "Pets" ("Питомцы")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter a positive numeric value starting from 0. </t>
+  </si>
+  <si>
+    <t>1) Enter a positive numeric value starting from 0 in the filter field "Age" ("Возраст")
+2) Click the button "Reset" ("Сбросить")</t>
+  </si>
+  <si>
+    <t>1) Pet cards with the corresponding age are displayed
+2) All pet cards are displayed</t>
+  </si>
+  <si>
+    <t>Displaying a dropdown list in the filter field "Breed" ("Порода") after selecting a value in the filter field "Kind of pet" ("Вид животного")  on the page "Pets" ("Питомцы")</t>
+  </si>
+  <si>
+    <t>1) Click the filter field "Kind of pet" ("Вид животного")
+2) Select "cat" ("кошка") from the dropdown list 
+3) Click the filter field "Breed" ("Порода")</t>
+  </si>
+  <si>
+    <t>1) A drop-down list with per's breeds opens.
+2)  
+3) A drop-down list with cat breeds opens</t>
+  </si>
+  <si>
+    <t>Appearance of a message about sending data in the modal window "Adopt a pet?!" ("Приютить питомца?!") after clicking the "Yes!" ("Да!")</t>
+  </si>
+  <si>
+    <t>1) Click the button "Adopt" ("Приютить")
+2) Fill in all input fields
+3) Click the button "Yes!" ("Да!")</t>
+  </si>
+  <si>
+    <t>1) The modal window with input fields opens
+2)  
+3) The window closes and a popup appears with the message: Your request has been submitted.</t>
+  </si>
+  <si>
+    <t>Entering numbers in the fields for entering the name and surname in the modal window "Adopt a pet?!" ("Приютить питомца?!")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter numbers in the appropriate input fields for name a surname
+2) Click the button "Yes!" ("Да!")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Leave the input field for patronymic blank  
+2) Click the button "Yes!" ("Да!")
+</t>
+  </si>
+  <si>
+    <t>A check mark appears at the end of the field confirming the correctness of the filling</t>
+  </si>
+  <si>
+    <t>Checking the validity of an empty value in the input field for patronymic in the modal window "Adopt a pet?!" ("Приютить питомца?!")</t>
+  </si>
+  <si>
+    <t>Checking the validity of an empty value in the input field for comments in the modal window "Adopt a pet?!" ("Приютить питомца?!")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Leave the input field for comments blank  
+2) Click the button "Yes!" ("Да!")
+</t>
+  </si>
+  <si>
+    <t>Entering letters in the field for entering a phone number in the modal window "Adopt a pet?!" ("Приютить питомца?!")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter letters in the field for entering a phone number
+2) Click the button "Yes!" ("Да!")
+</t>
+  </si>
+  <si>
+    <t>A message about an incorrect value is displayed under the field</t>
+  </si>
+  <si>
+    <t>A message is displayed under the field: The number must match+79********* !</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1103,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1128,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,24 +1142,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1146,33 +1159,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1277,118 +1274,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF8989"/>
         </patternFill>
       </fill>
@@ -1418,13 +1303,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8989"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1758,10 +1636,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1769,7 +1647,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="10"/>
@@ -1779,29 +1657,29 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="26" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1815,24 +1693,24 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
@@ -1844,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2</v>
@@ -1862,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1875,24 +1753,24 @@
     </row>
     <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -1908,7 +1786,7 @@
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1</v>
@@ -1924,7 +1802,7 @@
     <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
@@ -1936,13 +1814,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -1958,7 +1836,7 @@
     <row r="15" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -1974,7 +1852,7 @@
     <row r="16" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1</v>
@@ -1990,7 +1868,7 @@
     <row r="17" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
@@ -2006,7 +1884,7 @@
     <row r="18" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
@@ -2018,13 +1896,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -2036,13 +1914,13 @@
         <v>5</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>5</v>
@@ -2054,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1</v>
@@ -2076,7 +1954,7 @@
     <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1</v>
@@ -2092,7 +1970,7 @@
     <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
@@ -2104,13 +1982,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>5</v>
@@ -2122,13 +2000,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
@@ -2140,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>5</v>
@@ -2158,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2168,24 +2046,24 @@
     </row>
     <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
@@ -2197,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2206,21 +2084,21 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>1</v>
@@ -2236,7 +2114,7 @@
     <row r="33" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1</v>
@@ -2252,7 +2130,7 @@
     <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1</v>
@@ -2264,13 +2142,13 @@
         <v>2</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1</v>
@@ -2286,7 +2164,7 @@
     <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2</v>
@@ -2298,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
@@ -2316,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2332,21 +2210,21 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>1</v>
@@ -2362,7 +2240,7 @@
     <row r="41" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -2374,13 +2252,13 @@
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
@@ -2392,13 +2270,13 @@
         <v>2</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -2410,30 +2288,30 @@
         <v>2</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>1</v>
@@ -2449,24 +2327,24 @@
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
@@ -2482,7 +2360,7 @@
     <row r="50" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>1</v>
@@ -2498,7 +2376,7 @@
     <row r="51" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>1</v>
@@ -2514,7 +2392,7 @@
     <row r="52" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>1</v>
@@ -2530,7 +2408,7 @@
     <row r="53" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>1</v>
@@ -2546,24 +2424,24 @@
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>1</v>
@@ -2579,7 +2457,7 @@
     <row r="57" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>1</v>
@@ -2595,7 +2473,7 @@
     <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>1</v>
@@ -2611,24 +2489,24 @@
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
       <c r="F60" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>1</v>
@@ -2640,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
@@ -2658,13 +2536,13 @@
         <v>2</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
@@ -2676,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>1</v>
@@ -2694,13 +2572,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1</v>
@@ -2716,7 +2594,7 @@
     <row r="66" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>1</v>
@@ -2732,7 +2610,7 @@
     <row r="67" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2</v>
@@ -2744,13 +2622,13 @@
         <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
@@ -2762,13 +2640,13 @@
         <v>2</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>1</v>
@@ -2784,7 +2662,7 @@
     <row r="70" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>1</v>
@@ -2800,7 +2678,7 @@
     <row r="71" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>2</v>
@@ -2815,89 +2693,89 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="C46:D46">
-    <cfRule type="containsText" dxfId="37" priority="82" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="19" priority="81" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="82" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="81" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E8">
-    <cfRule type="containsText" dxfId="35" priority="98" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="17" priority="97" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="98" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="97" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:E26">
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:E29">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="93" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="94" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="12" priority="94" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E37">
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:E43">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="30" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:E53">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:E58">
-    <cfRule type="containsText" dxfId="23" priority="80" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="5" priority="79" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="80" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="79" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:E71">
-    <cfRule type="containsText" dxfId="21" priority="36" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="3" priority="35" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="36" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2910,478 +2788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6371855-7721-46D8-8717-F36F9D5932E6}">
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="10" max="18" width="9.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="44" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-    </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" display="https://drive.google.com/file/d/1cysH5oQ_D4FTu0-Q_YgpBms7t7cA3Cpn/view?usp=sharing" xr:uid="{A8CFD16C-C365-40F3-B04A-2C4A5D42C85D}"/>
-    <hyperlink ref="H8" r:id="rId2" display="https://drive.google.com/file/d/10RhRuIFb3DH9UAs37mbZMo6eJ3Mjt6Ct/view?usp=sharing" xr:uid="{DF9ED847-3717-4522-92C3-27A64288289E}"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://drive.google.com/file/d/1jU9Ar0Pyo3Arq10DgqR-fkAymrqr_ZbE/view?usp=sharing" xr:uid="{65E2D0EC-DA4E-472D-9B46-E048D1846C88}"/>
-    <hyperlink ref="H6" r:id="rId4" display="https://drive.google.com/file/d/19QJS4CkH34KIi5qz51U48wxAKF-TdBP9/view?usp=sharing" xr:uid="{3DC9E689-8564-44FA-AE5F-B63B151430EB}"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://drive.google.com/file/d/1IhK0t-LwqNWUo5qE4koIW6sagQ7-mH7H/view?usp=sharing" xr:uid="{A5D6A645-3301-4E97-AB99-04FA2F066D71}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{43D08249-8499-4DAB-9D93-E9F6A45E8D91}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BB9F5D-A655-4143-80F6-4E6B0B841F8C}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -3426,16 +2837,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
@@ -3443,22 +2854,22 @@
     </row>
     <row r="3" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>1</v>
@@ -3466,68 +2877,68 @@
     </row>
     <row r="4" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
@@ -3535,114 +2946,114 @@
     </row>
     <row r="7" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>1</v>
@@ -3660,4 +3071,471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6371855-7721-46D8-8717-F36F9D5932E6}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="10" max="18" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" display="https://drive.google.com/file/d/1cysH5oQ_D4FTu0-Q_YgpBms7t7cA3Cpn/view?usp=sharing" xr:uid="{A8CFD16C-C365-40F3-B04A-2C4A5D42C85D}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://drive.google.com/file/d/10RhRuIFb3DH9UAs37mbZMo6eJ3Mjt6Ct/view?usp=sharing" xr:uid="{DF9ED847-3717-4522-92C3-27A64288289E}"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://drive.google.com/file/d/1jU9Ar0Pyo3Arq10DgqR-fkAymrqr_ZbE/view?usp=sharing" xr:uid="{65E2D0EC-DA4E-472D-9B46-E048D1846C88}"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://drive.google.com/file/d/19QJS4CkH34KIi5qz51U48wxAKF-TdBP9/view?usp=sharing" xr:uid="{3DC9E689-8564-44FA-AE5F-B63B151430EB}"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://drive.google.com/file/d/1IhK0t-LwqNWUo5qE4koIW6sagQ7-mH7H/view?usp=sharing" xr:uid="{A5D6A645-3301-4E97-AB99-04FA2F066D71}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{43D08249-8499-4DAB-9D93-E9F6A45E8D91}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-case Check-list Bug Friends_house.xlsx
+++ b/Test-case Check-list Bug Friends_house.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\OneDrive\Documenti\QA Testing\In english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8090487-7027-49D3-8476-EF5067C0B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9578F94-5017-4409-B4CD-0B02074BD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B628AA17-D28A-45B2-B13B-3D903F6BABAA}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="202">
-  <si>
-    <t>Результат</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
   <si>
     <t>Passed</t>
   </si>
@@ -48,24 +45,6 @@
   </si>
   <si>
     <t>---</t>
-  </si>
-  <si>
-    <t>Номер тест-кейса</t>
-  </si>
-  <si>
-    <t>Приоритет</t>
-  </si>
-  <si>
-    <t>Название/заголово тест-кейса</t>
-  </si>
-  <si>
-    <t>Предусловие</t>
-  </si>
-  <si>
-    <t>Шаги</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
   </si>
   <si>
     <t>High</t>
@@ -697,6 +676,15 @@
   </si>
   <si>
     <t>A message is displayed under the field: The number must match+79********* !</t>
+  </si>
+  <si>
+    <t>Title of test case</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Expected result</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1100,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1119,33 +1125,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,10 +1624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="37"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1647,7 +1635,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="10"/>
@@ -1657,29 +1645,29 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E4" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1693,54 +1681,54 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1753,290 +1741,290 @@
     </row>
     <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2046,155 +2034,155 @@
     </row>
     <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2207,492 +2195,497 @@
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C55:E55"/>
@@ -2700,11 +2693,6 @@
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="C46:D46">
     <cfRule type="containsText" dxfId="19" priority="81" operator="containsText" text="Failed">
@@ -2791,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BB9F5D-A655-4143-80F6-4E6B0B841F8C}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,257 +2794,257 @@
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3066,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,28 +3084,28 @@
   <sheetData>
     <row r="1" spans="1:17" s="28" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -3129,80 +3117,80 @@
       <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>27</v>
+      <c r="A2" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>147</v>
+        <v>113</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="J2" s="41"/>
       <c r="K2" s="42"/>
       <c r="L2" s="43"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="40"/>
+        <v>19</v>
+      </c>
+      <c r="J3" s="41"/>
       <c r="K3" s="42"/>
       <c r="L3" s="44"/>
       <c r="M3" s="45"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="14"/>
@@ -3216,25 +3204,25 @@
     </row>
     <row r="5" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H5" s="18"/>
       <c r="J5" s="14"/>
@@ -3248,28 +3236,28 @@
     </row>
     <row r="6" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -3282,28 +3270,28 @@
     </row>
     <row r="7" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -3316,28 +3304,28 @@
     </row>
     <row r="8" spans="1:17" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="H8" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -3350,28 +3338,28 @@
     </row>
     <row r="9" spans="1:17" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -3384,25 +3372,25 @@
     </row>
     <row r="10" spans="1:17" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="14"/>
@@ -3416,25 +3404,25 @@
     </row>
     <row r="11" spans="1:17" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H11" s="18"/>
       <c r="J11" s="14"/>
@@ -3448,25 +3436,25 @@
     </row>
     <row r="12" spans="1:17" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="14"/>
@@ -3480,25 +3468,25 @@
     </row>
     <row r="13" spans="1:17" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="14"/>
@@ -3512,6 +3500,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -3519,13 +3514,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
